--- a/biology/Médecine/Syncinésie/Syncinésie.xlsx
+++ b/biology/Médecine/Syncinésie/Syncinésie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Syncin%C3%A9sie</t>
+          <t>Syncinésie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une syncinésie (appelée parfois mouvement syncinétique) est la contraction involontaire d'un muscle ou d'un groupe de muscles apparaissant alors qu'un autre mouvement volontaire ou réflexe est effectué[1]. Les syncinésies constituent un des signes cliniques du syndrome pyramidal, constaté chez les personnes hémiplégiques ou hémiparétiques[2]. De plus, leur présence constitue un des signes neurologiques discrets faisant partie des caractéristiques cliniques de l'enfant avec dyspraxie[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une syncinésie (appelée parfois mouvement syncinétique) est la contraction involontaire d'un muscle ou d'un groupe de muscles apparaissant alors qu'un autre mouvement volontaire ou réflexe est effectué. Les syncinésies constituent un des signes cliniques du syndrome pyramidal, constaté chez les personnes hémiplégiques ou hémiparétiques. De plus, leur présence constitue un des signes neurologiques discrets faisant partie des caractéristiques cliniques de l'enfant avec dyspraxie.
 Toutefois, certains mouvements syncinétiques ne sont signe d'aucune pathologie , tel le mouvement de la mâchoire lors de l'utilisation de ciseaux. On peut évoquer une syncinésie réflexe.
 Les différents types de mouvements syncinétiques sont :
 les mouvements syncinétiques globaux : ils sont provoqués par des évènements tels que la toux, le bâillement, l'effet de surprise (bruit inattendu, peur de la survenue d'un incident imminent, etc.) et l'effort. L'hémicorps effectue un mouvement de flexion du membre supérieur et d'extension du membre inférieur. Lorsqu'il est provoqué par l'effort, on dit aussi syncinésie d'effort.
